--- a/NatmiData/natmiOut_TPM/YoungD4/LR-pairs_lrc2p/Col8a1-Itga2.xlsx
+++ b/NatmiData/natmiOut_TPM/YoungD4/LR-pairs_lrc2p/Col8a1-Itga2.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="84" uniqueCount="26">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="100" uniqueCount="27">
   <si>
     <t>Sending cluster</t>
   </si>
@@ -80,6 +80,9 @@
   </si>
   <si>
     <t>FAPs</t>
+  </si>
+  <si>
+    <t>Inflammatory-Mac</t>
   </si>
   <si>
     <t>MuSCs</t>
@@ -449,7 +452,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:T17"/>
+  <dimension ref="A1:T21"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -522,10 +525,10 @@
         <v>20</v>
       </c>
       <c r="B2" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C2" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D2" t="s">
         <v>20</v>
@@ -537,16 +540,16 @@
         <v>1</v>
       </c>
       <c r="G2">
-        <v>11.967216</v>
+        <v>11.430265</v>
       </c>
       <c r="H2">
-        <v>35.901648</v>
+        <v>34.290795</v>
       </c>
       <c r="I2">
-        <v>0.06220177631455731</v>
+        <v>0.05939319992829472</v>
       </c>
       <c r="J2">
-        <v>0.0622017763145573</v>
+        <v>0.05939319992829471</v>
       </c>
       <c r="K2">
         <v>3</v>
@@ -555,28 +558,28 @@
         <v>1</v>
       </c>
       <c r="M2">
-        <v>4.548265666666667</v>
+        <v>6.066605666666667</v>
       </c>
       <c r="N2">
-        <v>13.644797</v>
+        <v>18.199817</v>
       </c>
       <c r="O2">
-        <v>0.8016112714390143</v>
+        <v>0.8497846287916651</v>
       </c>
       <c r="P2">
-        <v>0.8016112714390145</v>
+        <v>0.8497846287916652</v>
       </c>
       <c r="Q2">
-        <v>54.430077658384</v>
+        <v>69.34291042050165</v>
       </c>
       <c r="R2">
-        <v>489.8706989254561</v>
+        <v>624.0861937845149</v>
       </c>
       <c r="S2">
-        <v>0.04986164499727745</v>
+        <v>0.05047142835381507</v>
       </c>
       <c r="T2">
-        <v>0.04986164499727745</v>
+        <v>0.05047142835381507</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -584,10 +587,10 @@
         <v>20</v>
       </c>
       <c r="B3" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C3" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D3" t="s">
         <v>21</v>
@@ -599,16 +602,16 @@
         <v>1</v>
       </c>
       <c r="G3">
-        <v>11.967216</v>
+        <v>11.430265</v>
       </c>
       <c r="H3">
-        <v>35.901648</v>
+        <v>34.290795</v>
       </c>
       <c r="I3">
-        <v>0.06220177631455731</v>
+        <v>0.05939319992829472</v>
       </c>
       <c r="J3">
-        <v>0.0622017763145573</v>
+        <v>0.05939319992829471</v>
       </c>
       <c r="K3">
         <v>3</v>
@@ -623,22 +626,22 @@
         <v>2.562536</v>
       </c>
       <c r="O3">
-        <v>0.1505451302110428</v>
+        <v>0.1196497582104962</v>
       </c>
       <c r="P3">
-        <v>0.1505451302110428</v>
+        <v>0.1196497582104962</v>
       </c>
       <c r="Q3">
-        <v>10.222140606592</v>
+        <v>9.763488517346664</v>
       </c>
       <c r="R3">
-        <v>91.99926545932799</v>
+        <v>87.87139665611998</v>
       </c>
       <c r="S3">
-        <v>0.009364174514633186</v>
+        <v>0.007106382010768122</v>
       </c>
       <c r="T3">
-        <v>0.009364174514633186</v>
+        <v>0.007106382010768122</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -646,13 +649,13 @@
         <v>20</v>
       </c>
       <c r="B4" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C4" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D4" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="E4">
         <v>3</v>
@@ -661,16 +664,16 @@
         <v>1</v>
       </c>
       <c r="G4">
-        <v>11.967216</v>
+        <v>11.430265</v>
       </c>
       <c r="H4">
-        <v>35.901648</v>
+        <v>34.290795</v>
       </c>
       <c r="I4">
-        <v>0.06220177631455731</v>
+        <v>0.05939319992829472</v>
       </c>
       <c r="J4">
-        <v>0.0622017763145573</v>
+        <v>0.05939319992829471</v>
       </c>
       <c r="K4">
         <v>3</v>
@@ -679,28 +682,28 @@
         <v>1</v>
       </c>
       <c r="M4">
-        <v>0.2529803333333333</v>
+        <v>0.1824346666666667</v>
       </c>
       <c r="N4">
-        <v>0.758941</v>
+        <v>0.547304</v>
       </c>
       <c r="O4">
-        <v>0.0445866406042682</v>
+        <v>0.02555468148257719</v>
       </c>
       <c r="P4">
-        <v>0.04458664060426821</v>
+        <v>0.02555468148257719</v>
       </c>
       <c r="Q4">
-        <v>3.027470292752</v>
+        <v>2.085276585186666</v>
       </c>
       <c r="R4">
-        <v>27.247232634768</v>
+        <v>18.76748926668</v>
       </c>
       <c r="S4">
-        <v>0.002773368245484249</v>
+        <v>0.001517774306398598</v>
       </c>
       <c r="T4">
-        <v>0.002773368245484249</v>
+        <v>0.001517774306398598</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -708,14 +711,14 @@
         <v>20</v>
       </c>
       <c r="B5" t="s">
+        <v>25</v>
+      </c>
+      <c r="C5" t="s">
+        <v>26</v>
+      </c>
+      <c r="D5" t="s">
         <v>24</v>
       </c>
-      <c r="C5" t="s">
-        <v>25</v>
-      </c>
-      <c r="D5" t="s">
-        <v>23</v>
-      </c>
       <c r="E5">
         <v>3</v>
       </c>
@@ -723,16 +726,16 @@
         <v>1</v>
       </c>
       <c r="G5">
-        <v>11.967216</v>
+        <v>11.430265</v>
       </c>
       <c r="H5">
-        <v>35.901648</v>
+        <v>34.290795</v>
       </c>
       <c r="I5">
-        <v>0.06220177631455731</v>
+        <v>0.05939319992829472</v>
       </c>
       <c r="J5">
-        <v>0.0622017763145573</v>
+        <v>0.05939319992829471</v>
       </c>
       <c r="K5">
         <v>1</v>
@@ -741,28 +744,28 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="M5">
-        <v>0.01847966666666667</v>
+        <v>0.035773</v>
       </c>
       <c r="N5">
-        <v>0.055439</v>
+        <v>0.107319</v>
       </c>
       <c r="O5">
-        <v>0.003256957745674598</v>
+        <v>0.005010931515261538</v>
       </c>
       <c r="P5">
-        <v>0.003256957745674598</v>
+        <v>0.005010931515261539</v>
       </c>
       <c r="Q5">
-        <v>0.221150162608</v>
+        <v>0.408894869845</v>
       </c>
       <c r="R5">
-        <v>1.990351463472</v>
+        <v>3.680053828604999</v>
       </c>
       <c r="S5">
-        <v>0.0002025885571624162</v>
+        <v>0.0002976152573129213</v>
       </c>
       <c r="T5">
-        <v>0.0002025885571624162</v>
+        <v>0.0002976152573129213</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -770,10 +773,10 @@
         <v>21</v>
       </c>
       <c r="B6" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C6" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D6" t="s">
         <v>20</v>
@@ -791,10 +794,10 @@
         <v>526.245545</v>
       </c>
       <c r="I6">
-        <v>0.9117522314469324</v>
+        <v>0.9114809634935387</v>
       </c>
       <c r="J6">
-        <v>0.9117522314469324</v>
+        <v>0.9114809634935386</v>
       </c>
       <c r="K6">
         <v>3</v>
@@ -803,28 +806,28 @@
         <v>1</v>
       </c>
       <c r="M6">
-        <v>4.548265666666667</v>
+        <v>6.066605666666667</v>
       </c>
       <c r="N6">
-        <v>13.644797</v>
+        <v>18.199817</v>
       </c>
       <c r="O6">
-        <v>0.8016112714390143</v>
+        <v>0.8497846287916651</v>
       </c>
       <c r="P6">
-        <v>0.8016112714390145</v>
+        <v>0.8497846287916652</v>
       </c>
       <c r="Q6">
-        <v>797.834848186596</v>
+        <v>1064.174735118363</v>
       </c>
       <c r="R6">
-        <v>7180.513633679365</v>
+        <v>9577.572616065265</v>
       </c>
       <c r="S6">
-        <v>0.730870865487534</v>
+        <v>0.774562512213026</v>
       </c>
       <c r="T6">
-        <v>0.7308708654875341</v>
+        <v>0.774562512213026</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -832,10 +835,10 @@
         <v>21</v>
       </c>
       <c r="B7" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C7" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D7" t="s">
         <v>21</v>
@@ -853,10 +856,10 @@
         <v>526.245545</v>
       </c>
       <c r="I7">
-        <v>0.9117522314469324</v>
+        <v>0.9114809634935387</v>
       </c>
       <c r="J7">
-        <v>0.9117522314469324</v>
+        <v>0.9114809634935386</v>
       </c>
       <c r="K7">
         <v>3</v>
@@ -871,10 +874,10 @@
         <v>2.562536</v>
       </c>
       <c r="O7">
-        <v>0.1505451302110428</v>
+        <v>0.1196497582104962</v>
       </c>
       <c r="P7">
-        <v>0.1505451302110428</v>
+        <v>0.1196497582104962</v>
       </c>
       <c r="Q7">
         <v>149.8359059891244</v>
@@ -883,10 +886,10 @@
         <v>1348.52315390212</v>
       </c>
       <c r="S7">
-        <v>0.1372598584033873</v>
+        <v>0.109058476895472</v>
       </c>
       <c r="T7">
-        <v>0.1372598584033873</v>
+        <v>0.109058476895472</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -894,13 +897,13 @@
         <v>21</v>
       </c>
       <c r="B8" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C8" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D8" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="E8">
         <v>3</v>
@@ -915,10 +918,10 @@
         <v>526.245545</v>
       </c>
       <c r="I8">
-        <v>0.9117522314469324</v>
+        <v>0.9114809634935387</v>
       </c>
       <c r="J8">
-        <v>0.9117522314469324</v>
+        <v>0.9114809634935386</v>
       </c>
       <c r="K8">
         <v>3</v>
@@ -927,28 +930,28 @@
         <v>1</v>
       </c>
       <c r="M8">
-        <v>0.2529803333333333</v>
+        <v>0.1824346666666667</v>
       </c>
       <c r="N8">
-        <v>0.758941</v>
+        <v>0.547304</v>
       </c>
       <c r="O8">
-        <v>0.0445866406042682</v>
+        <v>0.02555468148257719</v>
       </c>
       <c r="P8">
-        <v>0.04458664060426821</v>
+        <v>0.02555468148257719</v>
       </c>
       <c r="Q8">
-        <v>44.37659112976055</v>
+        <v>32.00181019563111</v>
       </c>
       <c r="R8">
-        <v>399.389320167845</v>
+        <v>288.01629176068</v>
       </c>
       <c r="S8">
-        <v>0.04065196906366394</v>
+        <v>0.02329260569950994</v>
       </c>
       <c r="T8">
-        <v>0.04065196906366395</v>
+        <v>0.02329260569950994</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -956,13 +959,13 @@
         <v>21</v>
       </c>
       <c r="B9" t="s">
+        <v>25</v>
+      </c>
+      <c r="C9" t="s">
+        <v>26</v>
+      </c>
+      <c r="D9" t="s">
         <v>24</v>
-      </c>
-      <c r="C9" t="s">
-        <v>25</v>
-      </c>
-      <c r="D9" t="s">
-        <v>23</v>
       </c>
       <c r="E9">
         <v>3</v>
@@ -977,10 +980,10 @@
         <v>526.245545</v>
       </c>
       <c r="I9">
-        <v>0.9117522314469324</v>
+        <v>0.9114809634935387</v>
       </c>
       <c r="J9">
-        <v>0.9117522314469324</v>
+        <v>0.9114809634935386</v>
       </c>
       <c r="K9">
         <v>1</v>
@@ -989,28 +992,28 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="M9">
-        <v>0.01847966666666667</v>
+        <v>0.035773</v>
       </c>
       <c r="N9">
-        <v>0.055439</v>
+        <v>0.107319</v>
       </c>
       <c r="O9">
-        <v>0.003256957745674598</v>
+        <v>0.005010931515261538</v>
       </c>
       <c r="P9">
-        <v>0.003256957745674598</v>
+        <v>0.005010931515261539</v>
       </c>
       <c r="Q9">
-        <v>3.241614085472777</v>
+        <v>6.275127293761666</v>
       </c>
       <c r="R9">
-        <v>29.174526769255</v>
+        <v>56.476145643855</v>
       </c>
       <c r="S9">
-        <v>0.002969538492347185</v>
+        <v>0.004567368685530725</v>
       </c>
       <c r="T9">
-        <v>0.002969538492347185</v>
+        <v>0.004567368685530725</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1018,31 +1021,31 @@
         <v>22</v>
       </c>
       <c r="B10" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C10" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D10" t="s">
         <v>20</v>
       </c>
       <c r="E10">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="F10">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G10">
-        <v>4.979774333333332</v>
+        <v>0.05623966666666667</v>
       </c>
       <c r="H10">
-        <v>14.939323</v>
+        <v>0.168719</v>
       </c>
       <c r="I10">
-        <v>0.02588328055405482</v>
+        <v>0.0002922288998753735</v>
       </c>
       <c r="J10">
-        <v>0.02588328055405482</v>
+        <v>0.0002922288998753735</v>
       </c>
       <c r="K10">
         <v>3</v>
@@ -1051,28 +1054,28 @@
         <v>1</v>
       </c>
       <c r="M10">
-        <v>4.548265666666667</v>
+        <v>6.066605666666667</v>
       </c>
       <c r="N10">
-        <v>13.644797</v>
+        <v>18.199817</v>
       </c>
       <c r="O10">
-        <v>0.8016112714390143</v>
+        <v>0.8497846287916651</v>
       </c>
       <c r="P10">
-        <v>0.8016112714390145</v>
+        <v>0.8497846287916652</v>
       </c>
       <c r="Q10">
-        <v>22.64933662804788</v>
+        <v>0.3411838804914444</v>
       </c>
       <c r="R10">
-        <v>203.844029652431</v>
+        <v>3.070654924423</v>
       </c>
       <c r="S10">
-        <v>0.0207483294339486</v>
+        <v>0.0002483316272027909</v>
       </c>
       <c r="T10">
-        <v>0.0207483294339486</v>
+        <v>0.000248331627202791</v>
       </c>
     </row>
     <row r="11" spans="1:20">
@@ -1080,31 +1083,31 @@
         <v>22</v>
       </c>
       <c r="B11" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C11" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D11" t="s">
         <v>21</v>
       </c>
       <c r="E11">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="F11">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G11">
-        <v>4.979774333333332</v>
+        <v>0.05623966666666667</v>
       </c>
       <c r="H11">
-        <v>14.939323</v>
+        <v>0.168719</v>
       </c>
       <c r="I11">
-        <v>0.02588328055405482</v>
+        <v>0.0002922288998753735</v>
       </c>
       <c r="J11">
-        <v>0.02588328055405482</v>
+        <v>0.0002922288998753735</v>
       </c>
       <c r="K11">
         <v>3</v>
@@ -1119,22 +1122,22 @@
         <v>2.562536</v>
       </c>
       <c r="O11">
-        <v>0.1505451302110428</v>
+        <v>0.1196497582104962</v>
       </c>
       <c r="P11">
-        <v>0.1505451302110428</v>
+        <v>0.1196497582104962</v>
       </c>
       <c r="Q11">
-        <v>4.253617000347554</v>
+        <v>0.04803872348711111</v>
       </c>
       <c r="R11">
-        <v>38.28255300312799</v>
+        <v>0.432348511384</v>
       </c>
       <c r="S11">
-        <v>0.003896601841299134</v>
+        <v>3.496511721220774E-05</v>
       </c>
       <c r="T11">
-        <v>0.003896601841299134</v>
+        <v>3.496511721220774E-05</v>
       </c>
     </row>
     <row r="12" spans="1:20">
@@ -1142,31 +1145,31 @@
         <v>22</v>
       </c>
       <c r="B12" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C12" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D12" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="E12">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="F12">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G12">
-        <v>4.979774333333332</v>
+        <v>0.05623966666666667</v>
       </c>
       <c r="H12">
-        <v>14.939323</v>
+        <v>0.168719</v>
       </c>
       <c r="I12">
-        <v>0.02588328055405482</v>
+        <v>0.0002922288998753735</v>
       </c>
       <c r="J12">
-        <v>0.02588328055405482</v>
+        <v>0.0002922288998753735</v>
       </c>
       <c r="K12">
         <v>3</v>
@@ -1175,28 +1178,28 @@
         <v>1</v>
       </c>
       <c r="M12">
-        <v>0.2529803333333333</v>
+        <v>0.1824346666666667</v>
       </c>
       <c r="N12">
-        <v>0.758941</v>
+        <v>0.547304</v>
       </c>
       <c r="O12">
-        <v>0.0445866406042682</v>
+        <v>0.02555468148257719</v>
       </c>
       <c r="P12">
-        <v>0.04458664060426821</v>
+        <v>0.02555468148257719</v>
       </c>
       <c r="Q12">
-        <v>1.259784970771444</v>
+        <v>0.01026006484177778</v>
       </c>
       <c r="R12">
-        <v>11.338064736943</v>
+        <v>0.092340583576</v>
       </c>
       <c r="S12">
-        <v>0.001154048527723086</v>
+        <v>7.46781645631911E-06</v>
       </c>
       <c r="T12">
-        <v>0.001154048527723086</v>
+        <v>7.467816456319111E-06</v>
       </c>
     </row>
     <row r="13" spans="1:20">
@@ -1204,31 +1207,31 @@
         <v>22</v>
       </c>
       <c r="B13" t="s">
+        <v>25</v>
+      </c>
+      <c r="C13" t="s">
+        <v>26</v>
+      </c>
+      <c r="D13" t="s">
         <v>24</v>
       </c>
-      <c r="C13" t="s">
-        <v>25</v>
-      </c>
-      <c r="D13" t="s">
-        <v>23</v>
-      </c>
       <c r="E13">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="F13">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G13">
-        <v>4.979774333333332</v>
+        <v>0.05623966666666667</v>
       </c>
       <c r="H13">
-        <v>14.939323</v>
+        <v>0.168719</v>
       </c>
       <c r="I13">
-        <v>0.02588328055405482</v>
+        <v>0.0002922288998753735</v>
       </c>
       <c r="J13">
-        <v>0.02588328055405482</v>
+        <v>0.0002922288998753735</v>
       </c>
       <c r="K13">
         <v>1</v>
@@ -1237,28 +1240,28 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="M13">
-        <v>0.01847966666666667</v>
+        <v>0.035773</v>
       </c>
       <c r="N13">
-        <v>0.055439</v>
+        <v>0.107319</v>
       </c>
       <c r="O13">
-        <v>0.003256957745674598</v>
+        <v>0.005010931515261538</v>
       </c>
       <c r="P13">
-        <v>0.003256957745674598</v>
+        <v>0.005010931515261539</v>
       </c>
       <c r="Q13">
-        <v>0.09202456975522219</v>
+        <v>0.002011861595666667</v>
       </c>
       <c r="R13">
-        <v>0.8282211277969999</v>
+        <v>0.018106754361</v>
       </c>
       <c r="S13">
-        <v>8.430075108399753E-05</v>
+        <v>1.464339004055718E-06</v>
       </c>
       <c r="T13">
-        <v>8.430075108399754E-05</v>
+        <v>1.464339004055718E-06</v>
       </c>
     </row>
     <row r="14" spans="1:20">
@@ -1266,31 +1269,31 @@
         <v>23</v>
       </c>
       <c r="B14" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C14" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D14" t="s">
         <v>20</v>
       </c>
       <c r="E14">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F14">
-        <v>0.3333333333333333</v>
+        <v>1</v>
       </c>
       <c r="G14">
-        <v>0.03130466666666667</v>
+        <v>5.493340666666666</v>
       </c>
       <c r="H14">
-        <v>0.093914</v>
+        <v>16.480022</v>
       </c>
       <c r="I14">
-        <v>0.0001627116844554137</v>
+        <v>0.02854413965814136</v>
       </c>
       <c r="J14">
-        <v>0.0001627116844554137</v>
+        <v>0.02854413965814136</v>
       </c>
       <c r="K14">
         <v>3</v>
@@ -1299,28 +1302,28 @@
         <v>1</v>
       </c>
       <c r="M14">
-        <v>4.548265666666667</v>
+        <v>6.066605666666667</v>
       </c>
       <c r="N14">
-        <v>13.644797</v>
+        <v>18.199817</v>
       </c>
       <c r="O14">
-        <v>0.8016112714390143</v>
+        <v>0.8497846287916651</v>
       </c>
       <c r="P14">
-        <v>0.8016112714390145</v>
+        <v>0.8497846287916652</v>
       </c>
       <c r="Q14">
-        <v>0.1423819406064444</v>
+        <v>33.32593161733044</v>
       </c>
       <c r="R14">
-        <v>1.281437465458</v>
+        <v>299.9333845559739</v>
       </c>
       <c r="S14">
-        <v>0.0001304315202542879</v>
+        <v>0.0242563711235711</v>
       </c>
       <c r="T14">
-        <v>0.0001304315202542879</v>
+        <v>0.0242563711235711</v>
       </c>
     </row>
     <row r="15" spans="1:20">
@@ -1328,31 +1331,31 @@
         <v>23</v>
       </c>
       <c r="B15" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C15" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D15" t="s">
         <v>21</v>
       </c>
       <c r="E15">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F15">
-        <v>0.3333333333333333</v>
+        <v>1</v>
       </c>
       <c r="G15">
-        <v>0.03130466666666667</v>
+        <v>5.493340666666666</v>
       </c>
       <c r="H15">
-        <v>0.093914</v>
+        <v>16.480022</v>
       </c>
       <c r="I15">
-        <v>0.0001627116844554137</v>
+        <v>0.02854413965814136</v>
       </c>
       <c r="J15">
-        <v>0.0001627116844554137</v>
+        <v>0.02854413965814136</v>
       </c>
       <c r="K15">
         <v>3</v>
@@ -1367,22 +1370,22 @@
         <v>2.562536</v>
       </c>
       <c r="O15">
-        <v>0.1505451302110428</v>
+        <v>0.1196497582104962</v>
       </c>
       <c r="P15">
-        <v>0.1505451302110428</v>
+        <v>0.1196497582104962</v>
       </c>
       <c r="Q15">
-        <v>0.02673977843377778</v>
+        <v>4.692294406199109</v>
       </c>
       <c r="R15">
-        <v>0.240658005904</v>
+        <v>42.23064965579199</v>
       </c>
       <c r="S15">
-        <v>2.449545172319836E-05</v>
+        <v>0.003415299408423248</v>
       </c>
       <c r="T15">
-        <v>2.449545172319837E-05</v>
+        <v>0.003415299408423249</v>
       </c>
     </row>
     <row r="16" spans="1:20">
@@ -1390,31 +1393,31 @@
         <v>23</v>
       </c>
       <c r="B16" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C16" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D16" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="E16">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F16">
-        <v>0.3333333333333333</v>
+        <v>1</v>
       </c>
       <c r="G16">
-        <v>0.03130466666666667</v>
+        <v>5.493340666666666</v>
       </c>
       <c r="H16">
-        <v>0.093914</v>
+        <v>16.480022</v>
       </c>
       <c r="I16">
-        <v>0.0001627116844554137</v>
+        <v>0.02854413965814136</v>
       </c>
       <c r="J16">
-        <v>0.0001627116844554137</v>
+        <v>0.02854413965814136</v>
       </c>
       <c r="K16">
         <v>3</v>
@@ -1423,28 +1426,28 @@
         <v>1</v>
       </c>
       <c r="M16">
-        <v>0.2529803333333333</v>
+        <v>0.1824346666666667</v>
       </c>
       <c r="N16">
-        <v>0.758941</v>
+        <v>0.547304</v>
       </c>
       <c r="O16">
-        <v>0.0445866406042682</v>
+        <v>0.02555468148257719</v>
       </c>
       <c r="P16">
-        <v>0.04458664060426821</v>
+        <v>0.02555468148257719</v>
       </c>
       <c r="Q16">
-        <v>0.007919465008222222</v>
+        <v>1.002175773409778</v>
       </c>
       <c r="R16">
-        <v>0.07127518507399999</v>
+        <v>9.019581960687999</v>
       </c>
       <c r="S16">
-        <v>7.254767396928625E-06</v>
+        <v>0.000729436397158002</v>
       </c>
       <c r="T16">
-        <v>7.254767396928625E-06</v>
+        <v>0.0007294363971580021</v>
       </c>
     </row>
     <row r="17" spans="1:20">
@@ -1452,31 +1455,31 @@
         <v>23</v>
       </c>
       <c r="B17" t="s">
+        <v>25</v>
+      </c>
+      <c r="C17" t="s">
+        <v>26</v>
+      </c>
+      <c r="D17" t="s">
         <v>24</v>
       </c>
-      <c r="C17" t="s">
-        <v>25</v>
-      </c>
-      <c r="D17" t="s">
-        <v>23</v>
-      </c>
       <c r="E17">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F17">
-        <v>0.3333333333333333</v>
+        <v>1</v>
       </c>
       <c r="G17">
-        <v>0.03130466666666667</v>
+        <v>5.493340666666666</v>
       </c>
       <c r="H17">
-        <v>0.093914</v>
+        <v>16.480022</v>
       </c>
       <c r="I17">
-        <v>0.0001627116844554137</v>
+        <v>0.02854413965814136</v>
       </c>
       <c r="J17">
-        <v>0.0001627116844554137</v>
+        <v>0.02854413965814136</v>
       </c>
       <c r="K17">
         <v>1</v>
@@ -1485,28 +1488,276 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="M17">
-        <v>0.01847966666666667</v>
+        <v>0.035773</v>
       </c>
       <c r="N17">
-        <v>0.055439</v>
+        <v>0.107319</v>
       </c>
       <c r="O17">
-        <v>0.003256957745674598</v>
+        <v>0.005010931515261538</v>
       </c>
       <c r="P17">
-        <v>0.003256957745674598</v>
+        <v>0.005010931515261539</v>
       </c>
       <c r="Q17">
-        <v>0.0005784998051111111</v>
+        <v>0.1965132756686666</v>
       </c>
       <c r="R17">
-        <v>0.005206498245999999</v>
+        <v>1.768619481018</v>
       </c>
       <c r="S17">
-        <v>5.299450809988207E-07</v>
+        <v>0.0001430327289890072</v>
       </c>
       <c r="T17">
-        <v>5.299450809988208E-07</v>
+        <v>0.0001430327289890073</v>
+      </c>
+    </row>
+    <row r="18" spans="1:20">
+      <c r="A18" t="s">
+        <v>24</v>
+      </c>
+      <c r="B18" t="s">
+        <v>25</v>
+      </c>
+      <c r="C18" t="s">
+        <v>26</v>
+      </c>
+      <c r="D18" t="s">
+        <v>20</v>
+      </c>
+      <c r="E18">
+        <v>1</v>
+      </c>
+      <c r="F18">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="G18">
+        <v>0.05570833333333333</v>
+      </c>
+      <c r="H18">
+        <v>0.167125</v>
+      </c>
+      <c r="I18">
+        <v>0.0002894680201499048</v>
+      </c>
+      <c r="J18">
+        <v>0.0002894680201499048</v>
+      </c>
+      <c r="K18">
+        <v>3</v>
+      </c>
+      <c r="L18">
+        <v>1</v>
+      </c>
+      <c r="M18">
+        <v>6.066605666666667</v>
+      </c>
+      <c r="N18">
+        <v>18.199817</v>
+      </c>
+      <c r="O18">
+        <v>0.8497846287916651</v>
+      </c>
+      <c r="P18">
+        <v>0.8497846287916652</v>
+      </c>
+      <c r="Q18">
+        <v>0.3379604906805556</v>
+      </c>
+      <c r="R18">
+        <v>3.041644416125</v>
+      </c>
+      <c r="S18">
+        <v>0.0002459854740501451</v>
+      </c>
+      <c r="T18">
+        <v>0.0002459854740501451</v>
+      </c>
+    </row>
+    <row r="19" spans="1:20">
+      <c r="A19" t="s">
+        <v>24</v>
+      </c>
+      <c r="B19" t="s">
+        <v>25</v>
+      </c>
+      <c r="C19" t="s">
+        <v>26</v>
+      </c>
+      <c r="D19" t="s">
+        <v>21</v>
+      </c>
+      <c r="E19">
+        <v>1</v>
+      </c>
+      <c r="F19">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="G19">
+        <v>0.05570833333333333</v>
+      </c>
+      <c r="H19">
+        <v>0.167125</v>
+      </c>
+      <c r="I19">
+        <v>0.0002894680201499048</v>
+      </c>
+      <c r="J19">
+        <v>0.0002894680201499048</v>
+      </c>
+      <c r="K19">
+        <v>3</v>
+      </c>
+      <c r="L19">
+        <v>1</v>
+      </c>
+      <c r="M19">
+        <v>0.8541786666666665</v>
+      </c>
+      <c r="N19">
+        <v>2.562536</v>
+      </c>
+      <c r="O19">
+        <v>0.1196497582104962</v>
+      </c>
+      <c r="P19">
+        <v>0.1196497582104962</v>
+      </c>
+      <c r="Q19">
+        <v>0.04758486988888888</v>
+      </c>
+      <c r="R19">
+        <v>0.4282638289999999</v>
+      </c>
+      <c r="S19">
+        <v>3.463477862060714E-05</v>
+      </c>
+      <c r="T19">
+        <v>3.463477862060715E-05</v>
+      </c>
+    </row>
+    <row r="20" spans="1:20">
+      <c r="A20" t="s">
+        <v>24</v>
+      </c>
+      <c r="B20" t="s">
+        <v>25</v>
+      </c>
+      <c r="C20" t="s">
+        <v>26</v>
+      </c>
+      <c r="D20" t="s">
+        <v>23</v>
+      </c>
+      <c r="E20">
+        <v>1</v>
+      </c>
+      <c r="F20">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="G20">
+        <v>0.05570833333333333</v>
+      </c>
+      <c r="H20">
+        <v>0.167125</v>
+      </c>
+      <c r="I20">
+        <v>0.0002894680201499048</v>
+      </c>
+      <c r="J20">
+        <v>0.0002894680201499048</v>
+      </c>
+      <c r="K20">
+        <v>3</v>
+      </c>
+      <c r="L20">
+        <v>1</v>
+      </c>
+      <c r="M20">
+        <v>0.1824346666666667</v>
+      </c>
+      <c r="N20">
+        <v>0.547304</v>
+      </c>
+      <c r="O20">
+        <v>0.02555468148257719</v>
+      </c>
+      <c r="P20">
+        <v>0.02555468148257719</v>
+      </c>
+      <c r="Q20">
+        <v>0.01016313122222222</v>
+      </c>
+      <c r="R20">
+        <v>0.091468181</v>
+      </c>
+      <c r="S20">
+        <v>7.397263054323053E-06</v>
+      </c>
+      <c r="T20">
+        <v>7.397263054323054E-06</v>
+      </c>
+    </row>
+    <row r="21" spans="1:20">
+      <c r="A21" t="s">
+        <v>24</v>
+      </c>
+      <c r="B21" t="s">
+        <v>25</v>
+      </c>
+      <c r="C21" t="s">
+        <v>26</v>
+      </c>
+      <c r="D21" t="s">
+        <v>24</v>
+      </c>
+      <c r="E21">
+        <v>1</v>
+      </c>
+      <c r="F21">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="G21">
+        <v>0.05570833333333333</v>
+      </c>
+      <c r="H21">
+        <v>0.167125</v>
+      </c>
+      <c r="I21">
+        <v>0.0002894680201499048</v>
+      </c>
+      <c r="J21">
+        <v>0.0002894680201499048</v>
+      </c>
+      <c r="K21">
+        <v>1</v>
+      </c>
+      <c r="L21">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="M21">
+        <v>0.035773</v>
+      </c>
+      <c r="N21">
+        <v>0.107319</v>
+      </c>
+      <c r="O21">
+        <v>0.005010931515261538</v>
+      </c>
+      <c r="P21">
+        <v>0.005010931515261539</v>
+      </c>
+      <c r="Q21">
+        <v>0.001992854208333333</v>
+      </c>
+      <c r="R21">
+        <v>0.017935687875</v>
+      </c>
+      <c r="S21">
+        <v>1.45050442482952E-06</v>
+      </c>
+      <c r="T21">
+        <v>1.45050442482952E-06</v>
       </c>
     </row>
   </sheetData>
